--- a/federal_agg_state/federal_agg_state_2005_2006.xlsx
+++ b/federal_agg_state/federal_agg_state_2005_2006.xlsx
@@ -412,13 +412,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.161</v>
+        <v>0.118</v>
       </c>
       <c r="B2">
-        <v>4.511</v>
+        <v>3.105</v>
       </c>
       <c r="C2">
-        <v>0.755</v>
+        <v>0.793</v>
       </c>
     </row>
   </sheetData>
@@ -447,13 +447,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.086</v>
+        <v>0.033</v>
       </c>
       <c r="B2">
-        <v>1.96</v>
+        <v>1.149</v>
       </c>
       <c r="C2">
-        <v>0.755</v>
+        <v>0.784</v>
       </c>
     </row>
   </sheetData>
@@ -485,16 +485,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-0.046</v>
+        <v>-0.092</v>
       </c>
       <c r="B2">
-        <v>0.353</v>
+        <v>0.215</v>
       </c>
       <c r="C2">
-        <v>9568.57</v>
+        <v>14078.66</v>
       </c>
       <c r="D2">
-        <v>0.145</v>
+        <v>0.133</v>
       </c>
     </row>
   </sheetData>
